--- a/data/trans_bre/P21D_5_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Dificultad-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7512596319764869</v>
+        <v>0.751259631976487</v>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1467673164845655</v>
+        <v>0.1430432178027809</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.527204382099591</v>
+        <v>2.209611119658101</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2606451798861089</v>
+        <v>0.2606451798861088</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.037927546760606</v>
+        <v>1.037927546760605</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5018057819841447</v>
+        <v>-0.5112847351499114</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9244249457193151</v>
+        <v>0.9396997660520252</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.174008261457249</v>
+        <v>-1.313693621878207</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3694936182869156</v>
+        <v>0.3658870324213964</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1732622430235604</v>
+        <v>0.1732622430235605</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.621360733799312</v>
+        <v>1.621360733799313</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1673711928132382</v>
+        <v>-0.1733388632832883</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7591423209137154</v>
+        <v>0.7244075502193389</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1789971839429074</v>
+        <v>0.1789971839429075</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.8195690833816269</v>
+        <v>0.8195690833816273</v>
       </c>
     </row>
     <row r="17">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.149854366333587</v>
+        <v>-0.1384717625988504</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.5587861527531969</v>
+        <v>-0.5359365749417035</v>
       </c>
     </row>
     <row r="18">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4998375971926298</v>
+        <v>0.5069330984542322</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6.902761583172751</v>
+        <v>7.889605069899357</v>
       </c>
     </row>
     <row r="19">
